--- a/BloodstreamAPI/testData/Flags.xlsx
+++ b/BloodstreamAPI/testData/Flags.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE4C564-7CD3-43A8-934D-9B9C4BA077CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92D3C74-03E6-4E2D-9D20-68F8F9D1DA35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mflag" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="9">
   <si>
     <t>EndPoint</t>
   </si>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C48DD-C9F7-4E07-93E4-989CB3728A5F}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,9 +525,7 @@
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -552,9 +550,7 @@
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -579,9 +575,7 @@
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -597,7 +591,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +619,7 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -666,7 +660,7 @@
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -764,7 +758,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +786,7 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -833,7 +827,7 @@
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -930,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDD8A9B-A86D-4451-AA0A-6B485F7CCB08}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +953,7 @@
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1000,7 +994,7 @@
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>

--- a/BloodstreamAPI/testData/Flags.xlsx
+++ b/BloodstreamAPI/testData/Flags.xlsx
@@ -3,15 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92D3C74-03E6-4E2D-9D20-68F8F9D1DA35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB28156-9E16-471F-BE41-11C5BC5AAB29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mflag" sheetId="8" r:id="rId1"/>
     <sheet name="Pflag" sheetId="9" r:id="rId2"/>
     <sheet name="Sflag" sheetId="10" r:id="rId3"/>
-    <sheet name="Uflag" sheetId="11" r:id="rId4"/>
+    <sheet name="Duplicate" sheetId="12" r:id="rId4"/>
+    <sheet name="Inconsistent" sheetId="13" r:id="rId5"/>
+    <sheet name="Uflag" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="29">
   <si>
     <t>EndPoint</t>
   </si>
@@ -50,6 +52,66 @@
   </si>
   <si>
     <t>/testInfo/orderTests</t>
+  </si>
+  <si>
+    <t>GroupStatus</t>
+  </si>
+  <si>
+    <t>SearchBy</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>DonationID:DEF015</t>
+  </si>
+  <si>
+    <t>TubeID:MASDEF001</t>
+  </si>
+  <si>
+    <t>DonationID:DEF775</t>
+  </si>
+  <si>
+    <t>TubeID:MASDEF0077</t>
+  </si>
+  <si>
+    <t>TubeID:MASDEF0088</t>
+  </si>
+  <si>
+    <t>DonationID:DEF8808</t>
+  </si>
+  <si>
+    <t>TubeID:MASCDF18011</t>
+  </si>
+  <si>
+    <t>TubeID:MASCDF278</t>
+  </si>
+  <si>
+    <t>DonationsOrdersAssert200</t>
+  </si>
+  <si>
+    <t>donationId</t>
+  </si>
+  <si>
+    <t>requestId</t>
+  </si>
+  <si>
+    <t>DEF775</t>
+  </si>
+  <si>
+    <t>DEF55775-2020211</t>
+  </si>
+  <si>
+    <t>DEF015-2020211</t>
+  </si>
+  <si>
+    <t>DEF015</t>
+  </si>
+  <si>
+    <t>DEF8808-2020211</t>
+  </si>
+  <si>
+    <t>DEF8808</t>
   </si>
 </sst>
 </file>
@@ -72,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +153,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -106,7 +180,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -141,9 +215,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -427,32 +507,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C48DD-C9F7-4E07-93E4-989CB3728A5F}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
     </row>
@@ -460,8 +546,12 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8"/>
     </row>
@@ -480,20 +570,24 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
     </row>
@@ -501,13 +595,17 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="6"/>
@@ -532,7 +630,7 @@
       <c r="E13" s="8"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="6"/>
@@ -581,39 +679,86 @@
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A24:D24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB169F1-53FF-41E3-B017-C1DD1689979C}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
     </row>
@@ -621,8 +766,12 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8"/>
     </row>
@@ -641,20 +790,24 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
     </row>
@@ -662,13 +815,17 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="6"/>
@@ -695,7 +852,7 @@
       <c r="E13" s="8"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="6"/>
@@ -722,7 +879,7 @@
       <c r="E18" s="8"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="6"/>
@@ -748,39 +905,85 @@
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A25:D25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E94795B-07F7-4F5F-BA6C-70D17F751F3E}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
     </row>
@@ -788,8 +991,12 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8"/>
     </row>
@@ -808,20 +1015,24 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
     </row>
@@ -829,125 +1040,290 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D01B3C6-DDDD-4F87-B535-E51C3C90EC73}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257170DD-98CC-4891-9532-7F59F4FBCC1D}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BDD8A9B-A86D-4451-AA0A-6B485F7CCB08}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
     </row>
@@ -955,8 +1331,12 @@
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="8"/>
     </row>
@@ -975,20 +1355,24 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
     </row>
@@ -996,13 +1380,17 @@
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="6"/>
@@ -1029,7 +1417,7 @@
       <c r="E13" s="8"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="6"/>
@@ -1056,7 +1444,7 @@
       <c r="E18" s="8"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="6"/>
@@ -1082,7 +1470,54 @@
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A25:D25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>